--- a/JAPANESE COUNTERS N5.xlsx
+++ b/JAPANESE COUNTERS N5.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="396">
   <si>
     <t>Kanji</t>
   </si>
@@ -1098,9 +1098,6 @@
     <t>か・にち</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>ついたち</t>
   </si>
   <si>
@@ -1156,26 +1153,6 @@
   </si>
   <si>
     <t>秒</t>
-  </si>
-  <si>
-    <t>ななこ
-(しちこ)</t>
-  </si>
-  <si>
-    <t>はちこ
-はっこ</t>
-  </si>
-  <si>
-    <t>ななほん
-(しちほん)</t>
-  </si>
-  <si>
-    <t>はっぽん
-はちほん</t>
-  </si>
-  <si>
-    <t>ななまい
-(しちまい)</t>
   </si>
   <si>
     <t>ななひき
@@ -1298,19 +1275,37 @@
 </t>
   </si>
   <si>
-    <t>さんじゅう</t>
-  </si>
-  <si>
-    <t>いちにち</t>
-  </si>
-  <si>
-    <t>にじゅう</t>
-  </si>
-  <si>
-    <t>ごにち</t>
-  </si>
-  <si>
-    <t>ろくにち</t>
+    <t xml:space="preserve">
+はっこ</t>
+  </si>
+  <si>
+    <t>はっぽん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ななこ
+</t>
+  </si>
+  <si>
+    <t>ななほん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ななまい
+</t>
+  </si>
+  <si>
+    <t>date      1</t>
+  </si>
+  <si>
+    <t>さんじゅういちにち</t>
+  </si>
+  <si>
+    <t>にじゅういちにち</t>
+  </si>
+  <si>
+    <t>にじゅうごにち</t>
+  </si>
+  <si>
+    <t>にじゅうるくにち</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1377,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1404,6 +1399,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,7 +1442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1534,17 +1541,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1565,6 +1561,23 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1872,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1886,7 +1899,7 @@
     <col min="6" max="6" width="16" style="42" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="42" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" style="42" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="42" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="42" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" style="42" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="42" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" style="42" customWidth="1"/>
@@ -1899,22 +1912,22 @@
   <sheetData>
     <row r="1" spans="1:254" s="28" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
       <c r="P1" s="26"/>
       <c r="Q1" s="27"/>
       <c r="R1" s="27"/>
@@ -2198,7 +2211,7 @@
       <c r="N2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="50"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="29"/>
       <c r="Q2" s="27"/>
       <c r="R2" s="27"/>
@@ -2482,7 +2495,7 @@
       <c r="N3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="51"/>
+      <c r="O3" s="46"/>
       <c r="P3" s="30"/>
       <c r="Q3" s="31"/>
       <c r="R3" s="31"/>
@@ -2752,21 +2765,21 @@
         <v>24</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="L4" s="17" t="s">
         <v>25</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="51"/>
+      <c r="O4" s="46"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="31"/>
       <c r="R4" s="31"/>
@@ -3036,21 +3049,21 @@
         <v>35</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="L5" s="17" t="s">
         <v>36</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="O5" s="51"/>
+        <v>371</v>
+      </c>
+      <c r="O5" s="46"/>
       <c r="P5" s="33"/>
       <c r="Q5" s="31"/>
       <c r="R5" s="31"/>
@@ -3311,7 +3324,7 @@
         <v>42</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>43</v>
@@ -3320,7 +3333,7 @@
         <v>44</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>45</v>
@@ -3334,7 +3347,7 @@
       <c r="N6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="52"/>
+      <c r="O6" s="47"/>
       <c r="P6" s="33"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
@@ -3604,21 +3617,21 @@
         <v>56</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L7" s="17" t="s">
         <v>57</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="51"/>
+      <c r="O7" s="46"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
@@ -3888,21 +3901,21 @@
         <v>67</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>68</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="51"/>
+      <c r="O8" s="46"/>
       <c r="P8" s="33"/>
       <c r="Q8" s="31"/>
       <c r="R8" s="31"/>
@@ -4186,7 +4199,7 @@
       <c r="N9" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O9" s="53"/>
+      <c r="O9" s="48"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="34"/>
@@ -4456,21 +4469,21 @@
         <v>92</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>93</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="O10" s="53"/>
+      <c r="O10" s="48"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
@@ -4754,7 +4767,7 @@
       <c r="N11" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="O11" s="52"/>
+      <c r="O11" s="47"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
@@ -5038,7 +5051,7 @@
       <c r="N12" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="O12" s="54"/>
+      <c r="O12" s="49"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
@@ -5322,7 +5335,7 @@
       <c r="N13" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="O13" s="54"/>
+      <c r="O13" s="49"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
@@ -5606,7 +5619,7 @@
       <c r="N14" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="O14" s="54"/>
+      <c r="O14" s="49"/>
       <c r="P14" s="33"/>
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
@@ -5890,7 +5903,7 @@
       <c r="N15" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="O15" s="54"/>
+      <c r="O15" s="49"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="31"/>
       <c r="R15" s="31"/>
@@ -6160,21 +6173,21 @@
         <v>228</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>229</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="N16" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="O16" s="55"/>
+      <c r="O16" s="50"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="37"/>
       <c r="R16" s="37"/>
@@ -6458,7 +6471,7 @@
       <c r="N17" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="O17" s="54"/>
+      <c r="O17" s="49"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="31"/>
       <c r="R17" s="31"/>
@@ -6716,7 +6729,7 @@
         <v>279</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>280</v>
@@ -6816,13 +6829,13 @@
         <v>124</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>125</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>126</v>
@@ -6830,7 +6843,7 @@
       <c r="N20" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="O20" s="53"/>
+      <c r="O20" s="48"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="34"/>
       <c r="R20" s="34"/>
@@ -7100,7 +7113,7 @@
         <v>174</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>175</v>
@@ -7114,7 +7127,7 @@
       <c r="N21" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="O21" s="53"/>
+      <c r="O21" s="48"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="34"/>
       <c r="R21" s="34"/>
@@ -7384,21 +7397,21 @@
         <v>251</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L22" s="12" t="s">
         <v>252</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="N22" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="O22" s="53"/>
+      <c r="O22" s="48"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="34"/>
       <c r="R22" s="34"/>
@@ -7682,7 +7695,7 @@
       <c r="N23" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="O23" s="53"/>
+      <c r="O23" s="48"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="34"/>
       <c r="R23" s="34"/>
@@ -7960,7 +7973,7 @@
       <c r="N24" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="O24" s="53"/>
+      <c r="O24" s="48"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="34"/>
       <c r="R24" s="34"/>
@@ -8209,10 +8222,10 @@
         <v>336</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>337</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>338</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>143</v>
@@ -8248,74 +8261,78 @@
     <row r="26" spans="1:254">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="3">
+        <v>11</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="F26" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="G26" s="57" t="s">
         <v>341</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="H26" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="I26" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="J26" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="K26" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="L26" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="M26" s="12" t="s">
         <v>347</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>348</v>
       </c>
       <c r="N26" s="23"/>
     </row>
     <row r="27" spans="1:254" ht="25.5">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3">
+        <v>21</v>
+      </c>
       <c r="D27" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E27" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="G27" s="12" t="s">
         <v>350</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>351</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="I27" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="J27" s="16" t="s">
+      <c r="I27" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="L27" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="M27" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="M27" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="N27" s="23" t="s">
+      <c r="N27" s="42" t="s">
         <v>392</v>
       </c>
     </row>
@@ -8323,25 +8340,17 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="12" t="s">
-        <v>393</v>
-      </c>
+      <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>396</v>
-      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="16"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="23" t="s">
-        <v>393</v>
-      </c>
+      <c r="N28" s="23"/>
     </row>
     <row r="29" spans="1:254" s="35" customFormat="1" ht="28.9" customHeight="1">
       <c r="A29" s="6" t="s">
@@ -8372,7 +8381,7 @@
         <v>187</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>188</v>
@@ -8386,7 +8395,7 @@
       <c r="N29" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="O29" s="53"/>
+      <c r="O29" s="48"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="34"/>
       <c r="R29" s="34"/>
@@ -8670,7 +8679,7 @@
       <c r="N30" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="O30" s="53"/>
+      <c r="O30" s="48"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="34"/>
       <c r="R30" s="34"/>
@@ -8928,10 +8937,10 @@
         <v>112</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>113</v>
@@ -8940,21 +8949,21 @@
         <v>114</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>115</v>
       </c>
       <c r="M31" s="16" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="O31" s="53"/>
+        <v>380</v>
+      </c>
+      <c r="O31" s="48"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="34"/>
       <c r="R31" s="34"/>
@@ -9197,7 +9206,7 @@
     </row>
     <row r="32" spans="1:254" s="41" customFormat="1">
       <c r="A32" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>257</v>
